--- a/품사표.xlsx
+++ b/품사표.xlsx
@@ -1,37 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\root\Documents\0. The Cyber University of Korea\Graduated School\Semester 3\Thesis\Analysis-of-South-Korean-Journalism-Framing-on-COVID-19-and-21st-South-Korea-General-Election\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F812C94-930C-4316-8CD5-4B2D0EE6E1C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="35415" yWindow="2430" windowWidth="23670" windowHeight="13290" xr2:uid="{5BF02DB5-CAFD-46A8-BD94-C3FD64F4276A}"/>
+    <workbookView xWindow="35415" yWindow="2430" windowWidth="23670" windowHeight="13290" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="235">
   <si>
     <t>실질의미유무</t>
   </si>
@@ -367,17 +352,388 @@
   </si>
   <si>
     <t>숫자</t>
+  </si>
+  <si>
+    <t>코로나</t>
+  </si>
+  <si>
+    <t>확진</t>
+  </si>
+  <si>
+    <t>우한</t>
+  </si>
+  <si>
+    <t>신종</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>바이러스</t>
+  </si>
+  <si>
+    <t>감염증</t>
+  </si>
+  <si>
+    <t>폐렴</t>
+  </si>
+  <si>
+    <t>환자</t>
+  </si>
+  <si>
+    <t>확산</t>
+  </si>
+  <si>
+    <t>국내</t>
+  </si>
+  <si>
+    <t>입국</t>
+  </si>
+  <si>
+    <t>병원</t>
+  </si>
+  <si>
+    <t>사망자</t>
+  </si>
+  <si>
+    <t>판정</t>
+  </si>
+  <si>
+    <t>경제</t>
+  </si>
+  <si>
+    <t>정부</t>
+  </si>
+  <si>
+    <t>이날</t>
+  </si>
+  <si>
+    <t>본부</t>
+  </si>
+  <si>
+    <t>대통령</t>
+  </si>
+  <si>
+    <t>대응</t>
+  </si>
+  <si>
+    <t>지원</t>
+  </si>
+  <si>
+    <t>연합</t>
+  </si>
+  <si>
+    <t>회의</t>
+  </si>
+  <si>
+    <t>장관</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>사태</t>
+  </si>
+  <si>
+    <t>대표</t>
+  </si>
+  <si>
+    <t>재난</t>
+  </si>
+  <si>
+    <t>국민</t>
+  </si>
+  <si>
+    <t>긴급</t>
+  </si>
+  <si>
+    <t>문재인</t>
+  </si>
+  <si>
+    <t>관련</t>
+  </si>
+  <si>
+    <t>트럼프</t>
+  </si>
+  <si>
+    <t>위기</t>
+  </si>
+  <si>
+    <t>한국</t>
+  </si>
+  <si>
+    <t>청와대</t>
+  </si>
+  <si>
+    <t>미국</t>
+  </si>
+  <si>
+    <t>지원금</t>
+  </si>
+  <si>
+    <t>극복</t>
+  </si>
+  <si>
+    <t>기업</t>
+  </si>
+  <si>
+    <t>교민</t>
+  </si>
+  <si>
+    <t>전세기</t>
+  </si>
+  <si>
+    <t>공장</t>
+  </si>
+  <si>
+    <t>투자</t>
+  </si>
+  <si>
+    <t>생산</t>
+  </si>
+  <si>
+    <t>업계</t>
+  </si>
+  <si>
+    <t>업체</t>
+  </si>
+  <si>
+    <t>피해</t>
+  </si>
+  <si>
+    <t>자동차</t>
+  </si>
+  <si>
+    <t>시장</t>
+  </si>
+  <si>
+    <t>수출</t>
+  </si>
+  <si>
+    <t>산업</t>
+  </si>
+  <si>
+    <t>중소기업</t>
+  </si>
+  <si>
+    <t>닷컴</t>
+  </si>
+  <si>
+    <t>현대</t>
+  </si>
+  <si>
+    <t>판매</t>
+  </si>
+  <si>
+    <t>금융</t>
+  </si>
+  <si>
+    <t>롯데</t>
+  </si>
+  <si>
+    <t>증시</t>
+  </si>
+  <si>
+    <t>지수</t>
+  </si>
+  <si>
+    <t>코스피</t>
+  </si>
+  <si>
+    <t>하락</t>
+  </si>
+  <si>
+    <t>포인트</t>
+  </si>
+  <si>
+    <t>금리</t>
+  </si>
+  <si>
+    <t>상승</t>
+  </si>
+  <si>
+    <t>세계</t>
+  </si>
+  <si>
+    <t>뉴욕</t>
+  </si>
+  <si>
+    <t>충격</t>
+  </si>
+  <si>
+    <t>전망</t>
+  </si>
+  <si>
+    <t>통화</t>
+  </si>
+  <si>
+    <t>주가</t>
+  </si>
+  <si>
+    <t>거래</t>
+  </si>
+  <si>
+    <t>현지</t>
+  </si>
+  <si>
+    <t>급락</t>
+  </si>
+  <si>
+    <t>경기</t>
+  </si>
+  <si>
+    <t>불안감</t>
+  </si>
+  <si>
+    <t>글로벌</t>
+  </si>
+  <si>
+    <t>구호</t>
+  </si>
+  <si>
+    <t>유가</t>
+  </si>
+  <si>
+    <t>분기</t>
+  </si>
+  <si>
+    <t>전년</t>
+  </si>
+  <si>
+    <t>동선</t>
+  </si>
+  <si>
+    <t>김포</t>
+  </si>
+  <si>
+    <t>유치원</t>
+  </si>
+  <si>
+    <t>관광</t>
+  </si>
+  <si>
+    <t>영업</t>
+  </si>
+  <si>
+    <t>매출</t>
+  </si>
+  <si>
+    <t>감소</t>
+  </si>
+  <si>
+    <t>이익</t>
+  </si>
+  <si>
+    <t>지난해</t>
+  </si>
+  <si>
+    <t>동기</t>
+  </si>
+  <si>
+    <t>여행객</t>
+  </si>
+  <si>
+    <t>대비</t>
+  </si>
+  <si>
+    <t>명동</t>
+  </si>
+  <si>
+    <t>배달</t>
+  </si>
+  <si>
+    <t>게임</t>
+  </si>
+  <si>
+    <t>여행</t>
+  </si>
+  <si>
+    <t>증가</t>
+  </si>
+  <si>
+    <t>기간</t>
+  </si>
+  <si>
+    <t>실적</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
+    <t>제주도</t>
+  </si>
+  <si>
+    <t>구입</t>
+  </si>
+  <si>
+    <t>휴가</t>
+  </si>
+  <si>
+    <t>식당</t>
+  </si>
+  <si>
+    <t>투어</t>
+  </si>
+  <si>
+    <t>카페</t>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>신천지</t>
+  </si>
+  <si>
+    <t>국회</t>
+  </si>
+  <si>
+    <t>민주당</t>
+  </si>
+  <si>
+    <t>귀국</t>
+  </si>
+  <si>
+    <t>통합</t>
+  </si>
+  <si>
+    <t>총선</t>
+  </si>
+  <si>
+    <t>미래</t>
+  </si>
+  <si>
+    <t>의원</t>
+  </si>
+  <si>
+    <t>선거</t>
+  </si>
+  <si>
+    <t>국가</t>
+  </si>
+  <si>
+    <t>호흡기</t>
+  </si>
+  <si>
+    <t>건강</t>
+  </si>
+  <si>
+    <t>위생</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -394,8 +750,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,6 +782,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +925,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -569,6 +946,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -601,27 +984,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -916,45 +1298,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F7DF55-9747-4C70-BFF5-2641C798674A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:21" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -971,9 +1353,9 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="11"/>
+    <row r="2" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="11"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1002,11 +1384,11 @@
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -1015,10 +1397,10 @@
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="1"/>
@@ -1037,19 +1419,19 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
+    <row r="4" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="9" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1"/>
@@ -1068,19 +1450,19 @@
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+    <row r="5" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1"/>
@@ -1099,11 +1481,11 @@
       <c r="T5" s="1"/>
       <c r="U5" s="1"/>
     </row>
-    <row r="6" spans="1:21" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
+    <row r="6" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1126,9 +1508,9 @@
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
+    <row r="7" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
@@ -1157,9 +1539,9 @@
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="11"/>
+    <row r="8" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="16"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1188,9 +1570,9 @@
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
     </row>
-    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="16"/>
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -1221,9 +1603,9 @@
       <c r="T9" s="1"/>
       <c r="U9" s="1"/>
     </row>
-    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
+    <row r="10" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="16"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="3" t="s">
         <v>23</v>
       </c>
@@ -1252,9 +1634,9 @@
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
     </row>
-    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
+    <row r="11" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1283,9 +1665,9 @@
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
     </row>
-    <row r="12" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
+    <row r="12" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="16"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1314,9 +1696,9 @@
       <c r="T12" s="1"/>
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="16"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1345,9 +1727,9 @@
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
     </row>
-    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10" t="s">
+    <row r="14" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1378,9 +1760,9 @@
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
     </row>
-    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
+    <row r="15" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="3" t="s">
         <v>34</v>
       </c>
@@ -1409,9 +1791,9 @@
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="11"/>
+    <row r="16" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="16"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3" t="s">
         <v>36</v>
       </c>
@@ -1440,8 +1822,8 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+    <row r="17" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="11"/>
       <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
@@ -1473,11 +1855,11 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1508,9 +1890,9 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
+    <row r="19" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3" t="s">
         <v>45</v>
       </c>
@@ -1539,9 +1921,9 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
+    <row r="20" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="3" t="s">
         <v>47</v>
       </c>
@@ -1570,9 +1952,9 @@
       <c r="T20" s="1"/>
       <c r="U20" s="1"/>
     </row>
-    <row r="21" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
+    <row r="21" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="3" t="s">
         <v>49</v>
       </c>
@@ -1601,9 +1983,9 @@
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
     </row>
-    <row r="22" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
+    <row r="22" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="16"/>
+      <c r="B22" s="17"/>
       <c r="C22" s="3" t="s">
         <v>51</v>
       </c>
@@ -1632,9 +2014,9 @@
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
+    <row r="23" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="16"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="3" t="s">
         <v>53</v>
       </c>
@@ -1663,9 +2045,9 @@
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
     </row>
-    <row r="24" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
+    <row r="24" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="3" t="s">
         <v>55</v>
       </c>
@@ -1694,9 +2076,9 @@
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
     </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
+    <row r="25" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="16"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="3" t="s">
         <v>57</v>
       </c>
@@ -1725,9 +2107,9 @@
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="14"/>
-      <c r="B26" s="11"/>
+    <row r="26" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="16"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="3" t="s">
         <v>59</v>
       </c>
@@ -1756,8 +2138,8 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
     </row>
-    <row r="27" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="14"/>
+    <row r="27" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="16"/>
       <c r="B27" s="5" t="s">
         <v>61</v>
       </c>
@@ -1789,9 +2171,9 @@
       <c r="T27" s="1"/>
       <c r="U27" s="1"/>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="18" t="s">
+    <row r="28" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="16"/>
+      <c r="B28" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -1822,9 +2204,9 @@
       <c r="T28" s="1"/>
       <c r="U28" s="1"/>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
+    <row r="29" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="16"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -1853,9 +2235,9 @@
       <c r="T29" s="1"/>
       <c r="U29" s="1"/>
     </row>
-    <row r="30" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
+    <row r="30" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
@@ -1884,9 +2266,9 @@
       <c r="T30" s="1"/>
       <c r="U30" s="1"/>
     </row>
-    <row r="31" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14"/>
-      <c r="B31" s="11"/>
+    <row r="31" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="16"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
@@ -1915,8 +2297,8 @@
       <c r="T31" s="1"/>
       <c r="U31" s="1"/>
     </row>
-    <row r="32" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14"/>
+    <row r="32" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="16"/>
       <c r="B32" s="2" t="s">
         <v>72</v>
       </c>
@@ -1948,9 +2330,9 @@
       <c r="T32" s="1"/>
       <c r="U32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14"/>
-      <c r="B33" s="10" t="s">
+    <row r="33" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="16"/>
+      <c r="B33" s="12" t="s">
         <v>75</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1981,9 +2363,9 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
     </row>
-    <row r="34" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
+    <row r="34" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
       <c r="C34" s="3" t="s">
         <v>78</v>
       </c>
@@ -2012,9 +2394,9 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
     </row>
-    <row r="35" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9"/>
-      <c r="B35" s="11"/>
+    <row r="35" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="11"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="3" t="s">
         <v>80</v>
       </c>
@@ -2043,7 +2425,7 @@
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
     </row>
-    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36" s="6"/>
       <c r="B36" s="2" t="s">
         <v>82</v>
@@ -2076,9 +2458,9 @@
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
     </row>
-    <row r="37" spans="1:21" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" ht="29.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37" s="6"/>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -2109,9 +2491,9 @@
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
     </row>
-    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38" s="6"/>
-      <c r="B38" s="15"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="3" t="s">
         <v>87</v>
       </c>
@@ -2140,13 +2522,13 @@
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
     </row>
-    <row r="39" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" s="6"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="16" t="s">
+      <c r="B39" s="17"/>
+      <c r="C39" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -2171,11 +2553,11 @@
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
     </row>
-    <row r="40" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="6"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="7" t="s">
         <v>94</v>
       </c>
@@ -2198,9 +2580,9 @@
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
     </row>
-    <row r="41" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="6"/>
-      <c r="B41" s="15"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="3" t="s">
         <v>96</v>
       </c>
@@ -2229,19 +2611,19 @@
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="6"/>
-      <c r="B42" s="15"/>
+      <c r="B42" s="17"/>
       <c r="C42" s="3" t="s">
         <v>100</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="F42" s="19"/>
+      <c r="F42" s="20"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2258,17 +2640,17 @@
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
     </row>
-    <row r="43" spans="1:21" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" ht="26.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="6"/>
-      <c r="B43" s="11"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="17"/>
-      <c r="F43" s="20"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="21"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2285,9 +2667,9 @@
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="6"/>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -2318,9 +2700,9 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
     </row>
-    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="6"/>
-      <c r="B45" s="15"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="3" t="s">
         <v>108</v>
       </c>
@@ -2349,9 +2731,9 @@
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
     </row>
-    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="6"/>
-      <c r="B46" s="11"/>
+      <c r="B46" s="13"/>
       <c r="C46" s="3" t="s">
         <v>110</v>
       </c>
@@ -2380,7 +2762,7 @@
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
     </row>
-    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2403,7 +2785,7 @@
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
     </row>
-    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2426,7 +2808,7 @@
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
     </row>
-    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2449,7 +2831,7 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
     </row>
-    <row r="50" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2472,7 +2854,7 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
     </row>
-    <row r="51" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2495,7 +2877,7 @@
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
     </row>
-    <row r="52" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2518,7 +2900,7 @@
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
     </row>
-    <row r="53" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2541,7 +2923,7 @@
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
     </row>
-    <row r="54" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2564,7 +2946,7 @@
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
     </row>
-    <row r="55" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2587,7 +2969,7 @@
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
     </row>
-    <row r="56" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2610,7 +2992,7 @@
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
     </row>
-    <row r="57" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2633,7 +3015,7 @@
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
     </row>
-    <row r="58" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2656,7 +3038,7 @@
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
     </row>
-    <row r="59" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2679,7 +3061,7 @@
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
     </row>
-    <row r="60" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2702,7 +3084,7 @@
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
     </row>
-    <row r="61" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2725,7 +3107,7 @@
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
     </row>
-    <row r="62" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2748,7 +3130,7 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
-    <row r="63" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2771,7 +3153,7 @@
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2794,7 +3176,7 @@
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2817,7 +3199,7 @@
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2840,7 +3222,7 @@
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2863,7 +3245,7 @@
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
     </row>
-    <row r="68" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2886,7 +3268,7 @@
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2909,7 +3291,7 @@
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
     </row>
-    <row r="70" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2932,7 +3314,7 @@
       <c r="T70" s="1"/>
       <c r="U70" s="1"/>
     </row>
-    <row r="71" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2955,7 +3337,7 @@
       <c r="T71" s="1"/>
       <c r="U71" s="1"/>
     </row>
-    <row r="72" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2978,7 +3360,7 @@
       <c r="T72" s="1"/>
       <c r="U72" s="1"/>
     </row>
-    <row r="73" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -3001,7 +3383,7 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
     </row>
-    <row r="74" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -3024,7 +3406,7 @@
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
     </row>
-    <row r="75" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3047,7 +3429,7 @@
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
     </row>
-    <row r="76" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3070,7 +3452,7 @@
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
     </row>
-    <row r="77" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -3093,7 +3475,7 @@
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
     </row>
-    <row r="78" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -3116,7 +3498,7 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
     </row>
-    <row r="79" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3139,7 +3521,7 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
     </row>
-    <row r="80" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3162,7 +3544,7 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
     </row>
-    <row r="81" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -3185,7 +3567,7 @@
       <c r="T81" s="1"/>
       <c r="U81" s="1"/>
     </row>
-    <row r="82" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -3208,7 +3590,7 @@
       <c r="T82" s="1"/>
       <c r="U82" s="1"/>
     </row>
-    <row r="83" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3231,7 +3613,7 @@
       <c r="T83" s="1"/>
       <c r="U83" s="1"/>
     </row>
-    <row r="84" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3254,7 +3636,7 @@
       <c r="T84" s="1"/>
       <c r="U84" s="1"/>
     </row>
-    <row r="85" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -3277,7 +3659,7 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
     </row>
-    <row r="86" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -3300,7 +3682,7 @@
       <c r="T86" s="1"/>
       <c r="U86" s="1"/>
     </row>
-    <row r="87" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3323,7 +3705,7 @@
       <c r="T87" s="1"/>
       <c r="U87" s="1"/>
     </row>
-    <row r="88" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3346,7 +3728,7 @@
       <c r="T88" s="1"/>
       <c r="U88" s="1"/>
     </row>
-    <row r="89" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -3369,7 +3751,7 @@
       <c r="T89" s="1"/>
       <c r="U89" s="1"/>
     </row>
-    <row r="90" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -3392,7 +3774,7 @@
       <c r="T90" s="1"/>
       <c r="U90" s="1"/>
     </row>
-    <row r="91" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3415,7 +3797,7 @@
       <c r="T91" s="1"/>
       <c r="U91" s="1"/>
     </row>
-    <row r="92" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3438,7 +3820,7 @@
       <c r="T92" s="1"/>
       <c r="U92" s="1"/>
     </row>
-    <row r="93" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -3461,7 +3843,7 @@
       <c r="T93" s="1"/>
       <c r="U93" s="1"/>
     </row>
-    <row r="94" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3484,7 +3866,7 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
     </row>
-    <row r="95" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3507,7 +3889,7 @@
       <c r="T95" s="1"/>
       <c r="U95" s="1"/>
     </row>
-    <row r="96" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -3530,7 +3912,7 @@
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
     </row>
-    <row r="97" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3553,7 +3935,7 @@
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
     </row>
-    <row r="98" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3576,7 +3958,7 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
     </row>
-    <row r="99" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:21" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3622,7 +4004,2113 @@
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="B14:B16"/>
   </mergeCells>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection sqref="A1:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="9" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B38" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B43" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B53" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B54" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B59" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B61" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B65" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B67" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B69" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B70" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C71" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B72" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C73" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D73" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C74" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C76" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="C82" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="C84" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="C85" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C89" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C90" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C92" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B98" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B99" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C103" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C104" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B108" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B109" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D109" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B110" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D110" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C111" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D111" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C112" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D112" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D113" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D114" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C115" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D116" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C117" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D117" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B118" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D118" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B119" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D119" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D120" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B121" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C121" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D121" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B122" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D122" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C123" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D123" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B124" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="C124" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D124" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B125" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="C125" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C126" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D126" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="C128" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D129" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B130" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C130" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D130" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C131" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D131" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B132" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="C132" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D132" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="C133" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D133" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="C134" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D134" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B135" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C135" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D135" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B136" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C136" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D136" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B137" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C137" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D137" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C138" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D138" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B139" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="C139" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D139" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B140" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="C140" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D140" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B141" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="C141" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D141" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B142" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C142" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D142" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D143" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="C144" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D144" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D145" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D146" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C147" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D147" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C148" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D149" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>